--- a/v0.1/parced_data.xlsx
+++ b/v0.1/parced_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Аналитик (bi)</t>
   </si>
@@ -40,7 +40,34 @@
     <t>Bayer</t>
   </si>
   <si>
+    <t>Эксперт по производительности bi системы</t>
+  </si>
+  <si>
+    <t>Должностные обязанности В Bayer мы смотрим в будущее и наше предназначение – борьба с самыми трудными вызовами и создание мира, в котором наша цель, мир без болезней и голода, не будет казаться мечтой, а станет вполне осуществимой реальностью. Нами движет энергия, любопытство и преданность делу. Мы непрерывно учимся, извлекая уроки из всего, что нас окружает. Мы расширяем границы мышления и совершенствуемся, чтобы по-новому взглянуть на вещи, которые считались невозможными. Есть множество причин, почему нас выбирают, и, если вы действительно хотите, чтобы ваш профессиональный путь был разносторонним и осмысленным, если ваша мечта – стать частью яркого и многогранного сообщества, если вы горите желанием сделать что‑либо действительно значимое, сделайте правильный выбор. Позиция: Эксперт по производительности BI системы / BI performance expert Дивизион: Pharmaceuticals Направление: отдел эффективности маркетинга и продаж, направление по бизнес-аналитике Задачи: Разработка и развитие BI инструментов компании для целей бизнес-аналитики: поддержка и оптимизация существующего хранилища данных, баз данных, витрин данных и автообновляемых бизнес-отчётов на основе указанных витрин. Разработка ETL процессов. Администрирование Microsoft SQL Server. Загрузка данных из различных источников, своевременное обновление данных, поддержка корректной работы текущих отчетов Tableau. Обеспечение корректности расчётов с учётом текущей бизнес-логики и своевременного обновления ключевых показателей эффективности. Автоматизация рутинных операций с целью экономии времени и ресурсов. Обеспечение бесперебойной работы всей BI-системы и своевременное решение возникающих проблем. Контроль соблюдения архитектурных решений в процессе развития корпоративного DWH, соответствия новых разработок техническому решению. Ведение локальных BI проектов и участие в международных проектах в качестве эксперта по архитектуре данных. Для нас важно: Высшее образование, предпочтительно в области информатики, статистики или экономики. Опыт работы от 2 лет, уверенное владение SQL (оконные функции, индексы, хранимые процедуры и тд). Готовность и умение разбираться в чужом коде. Понимание, как находить недостающие для решения данные, умение обрабатывать несколько задач одновременно, расставлять и соблюдать приоритеты, эффективно использовать ресурсы. Ответственность, внимательность, пунктуальность. Умение работать с Git. Навыки визуализации данных (предпочтительно знание Tableau desktop). Английский язык на уровне intermediate и выше. Мы предлагаем: Работу в стабильной международной компании. Стабильную заработную плату, возможность получить годовой бонус. Компенсацию питания. 5 недель оплачиваемого отпуска. ДМС, страхование жизни и страхование от несчастных случаев. Гибридный режим работы. Корпоративные программы обучения и развития сотрудников. Требования к кандидату Данные по вакансии График работы: Полный рабочий день Количество рабочих мест: 1 Контактная информация Контактное лицо: Наталья Ловягина Телефон: +7(495) 234 20 00 Дополнительная информация по адресу: 3-я Рыбинская ул. Вакансия на карте Информация о регионе</t>
+  </si>
+  <si>
+    <t>20.05.2024</t>
+  </si>
+  <si>
     <t>РФС</t>
+  </si>
+  <si>
+    <t>Аналитик bi/разработчик</t>
+  </si>
+  <si>
+    <t>Должностные обязанности разработка отчетности в системах Superset;взаимодействие с бизнес заказчиками:• сбор требований;• подготовка прототипов отчетов;• обсуждение прототипов с заказчиком.отладка стилей отчетов на CSS;анализ источников, сбор данных, построение витрин в БД. Требования к кандидату высшее образование;желателен опыт работы и желание развиваться в направлении BI отчетности;знание HTML/CSS, Superset, MySQL;желательно знание UX/UI, SQL;инициативность;готовность принимать решения и брать ответственность. Опыт работы от 5 лет Образование: Высшее Данные по вакансии Профессия: Специалист График работы: Полный рабочий день Рабочее время: c 09:00 по 18:00 Количество рабочих мест: 1 Премии и бонусы Ежегодная премия 10 % ДМС Премия 10 % Контактная информация Контактное лицо: Смирнова Екатерина Владимировна Телефон: +7(999) 542-02-42 Электронная почта: smirnova_ev@rfs.ru Вакансия на карте Информация о регионе</t>
+  </si>
+  <si>
+    <t>от 60 000 руб.</t>
+  </si>
+  <si>
+    <t>06.05.2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Требования к кандидату высшее образование;желателен опыт работы и желание развиваться в направлении BI отчетности;знание HTML/CSS, Superset, MySQL;желательно знание UX/UI, SQL;инициативность;готовность принимать решения и брать ответственность. Опыт работы от 5 лет Образование: Высшее </t>
+  </si>
+  <si>
+    <t>Опыт работы от 5 лет</t>
   </si>
 </sst>
 </file>
@@ -426,19 +453,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -449,13 +476,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
@@ -464,7 +494,10 @@
         <v>4</v>
       </c>
       <c r="G4" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
       </c>
       <c r="I4" t="s">
         <v>6</v>
